--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3017.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3017.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168872341731963</v>
+        <v>1.300639748573303</v>
       </c>
       <c r="B1">
-        <v>2.133394054052225</v>
+        <v>1.820849657058716</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.722445607185364</v>
       </c>
       <c r="D1">
-        <v>2.291692458951249</v>
+        <v>4.992780208587646</v>
       </c>
       <c r="E1">
-        <v>1.201839537683417</v>
+        <v>1.348918080329895</v>
       </c>
     </row>
   </sheetData>
